--- a/Audit_Merchandising/Audit_Merchandising.xlsx
+++ b/Audit_Merchandising/Audit_Merchandising.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028F37A-961C-48D8-A8BC-33D48A9E7996}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F69F9-7870-4B81-9160-3DD4A9D1F151}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="231">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>Merchandiser Scores</t>
-  </si>
-  <si>
-    <t>Juices - 200ML</t>
   </si>
   <si>
     <t>MILKPAK CREAM 200ML</t>
@@ -1564,10 +1561,10 @@
   <dimension ref="A1:T1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1245" sqref="C1245:C1255"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>34</v>
@@ -1710,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>35</v>
@@ -1897,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -1943,7 +1940,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="16">
         <v>7</v>
@@ -2265,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="25">
         <v>13</v>
@@ -2587,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" s="25">
         <v>20</v>
@@ -2633,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="25">
         <v>21</v>
@@ -2771,7 +2768,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="41">
         <v>24</v>
@@ -2814,7 +2811,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>34</v>
@@ -2860,7 +2857,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>37</v>
@@ -2906,7 +2903,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>36</v>
@@ -2952,7 +2949,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>35</v>
@@ -2998,7 +2995,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>169</v>
@@ -3277,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -3599,7 +3596,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" s="16">
         <v>42</v>
@@ -3645,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="16">
         <v>43</v>
@@ -3964,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>51</v>
@@ -4010,7 +4007,7 @@
         <v>23</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>50</v>
@@ -4056,7 +4053,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>48</v>
@@ -4102,7 +4099,7 @@
         <v>23</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>49</v>
@@ -4148,7 +4145,7 @@
         <v>23</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>88</v>
@@ -4381,7 +4378,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E61" s="24">
         <v>59</v>
@@ -4565,7 +4562,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" s="25">
         <v>63</v>
@@ -4887,7 +4884,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E72" s="25">
         <v>70</v>
@@ -4933,7 +4930,7 @@
         <v>24</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E73" s="25">
         <v>71</v>
@@ -4976,7 +4973,7 @@
         <v>33</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>34</v>
@@ -5022,7 +5019,7 @@
         <v>33</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>37</v>
@@ -5068,7 +5065,7 @@
         <v>33</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>36</v>
@@ -5114,7 +5111,7 @@
         <v>33</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>35</v>
@@ -5160,7 +5157,7 @@
         <v>33</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>169</v>
@@ -5347,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -5531,7 +5528,7 @@
         <v>38</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E86" s="13">
         <v>84</v>
@@ -5899,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E94" s="16">
         <v>92</v>
@@ -6037,7 +6034,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E97" s="16">
         <v>95</v>
@@ -6083,7 +6080,7 @@
         <v>20</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E98" s="16">
         <v>96</v>
@@ -7325,7 +7322,7 @@
         <v>55</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E125" s="24">
         <v>123</v>
@@ -7371,7 +7368,7 @@
         <v>55</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E126" s="24">
         <v>124</v>
@@ -7828,7 +7825,7 @@
         <v>33</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>34</v>
@@ -7874,7 +7871,7 @@
         <v>33</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>37</v>
@@ -7920,7 +7917,7 @@
         <v>33</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>36</v>
@@ -7966,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>35</v>
@@ -8012,7 +8009,7 @@
         <v>33</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>169</v>
@@ -8291,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -8475,7 +8472,7 @@
         <v>38</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E150" s="13">
         <v>148</v>
@@ -8843,7 +8840,7 @@
         <v>20</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E158" s="16">
         <v>156</v>
@@ -8981,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="16">
         <v>159</v>
@@ -9947,7 +9944,7 @@
         <v>55</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E182" s="24">
         <v>180</v>
@@ -9993,7 +9990,7 @@
         <v>55</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E183" s="24">
         <v>181</v>
@@ -11005,7 +11002,7 @@
         <v>2</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
@@ -11189,7 +11186,7 @@
         <v>38</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E209" s="13">
         <v>207</v>
@@ -11603,7 +11600,7 @@
         <v>20</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E218" s="16">
         <v>216</v>
@@ -11741,7 +11738,7 @@
         <v>20</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E221" s="16">
         <v>219</v>
@@ -11787,7 +11784,7 @@
         <v>20</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E222" s="16">
         <v>220</v>
@@ -11833,7 +11830,7 @@
         <v>20</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E223" s="16">
         <v>221</v>
@@ -12431,7 +12428,7 @@
         <v>22</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E236" s="18">
         <v>234</v>
@@ -12799,7 +12796,7 @@
         <v>22</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E244" s="18">
         <v>242</v>
@@ -13903,7 +13900,7 @@
         <v>52</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E268" s="26">
         <v>266</v>
@@ -13949,7 +13946,7 @@
         <v>52</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E269" s="26">
         <v>267</v>
@@ -13995,7 +13992,7 @@
         <v>55</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E270" s="24">
         <v>268</v>
@@ -14041,7 +14038,7 @@
         <v>55</v>
       </c>
       <c r="D271" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E271" s="24">
         <v>269</v>
@@ -14087,7 +14084,7 @@
         <v>55</v>
       </c>
       <c r="D272" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E272" s="24">
         <v>270</v>
@@ -14179,7 +14176,7 @@
         <v>55</v>
       </c>
       <c r="D274" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E274" s="24">
         <v>272</v>
@@ -14685,7 +14682,7 @@
         <v>100</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E285" s="25">
         <v>283</v>
@@ -15651,7 +15648,7 @@
         <v>133</v>
       </c>
       <c r="D306" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E306" s="57">
         <v>304</v>
@@ -15789,7 +15786,7 @@
         <v>133</v>
       </c>
       <c r="D309" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E309" s="57">
         <v>307</v>
@@ -15832,7 +15829,7 @@
         <v>33</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D310" s="20" t="s">
         <v>34</v>
@@ -15878,7 +15875,7 @@
         <v>33</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D311" s="20" t="s">
         <v>37</v>
@@ -15924,7 +15921,7 @@
         <v>33</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D312" s="20" t="s">
         <v>36</v>
@@ -15970,7 +15967,7 @@
         <v>33</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D313" s="20" t="s">
         <v>35</v>
@@ -16016,7 +16013,7 @@
         <v>33</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D314" s="20" t="s">
         <v>168</v>
@@ -16062,7 +16059,7 @@
         <v>33</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D315" s="20" t="s">
         <v>169</v>
@@ -16108,7 +16105,7 @@
         <v>33</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D316" s="20" t="s">
         <v>170</v>
@@ -16154,7 +16151,7 @@
         <v>33</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D317" s="20" t="s">
         <v>171</v>
@@ -16200,7 +16197,7 @@
         <v>33</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D318" s="20" t="s">
         <v>81</v>
@@ -16479,7 +16476,7 @@
         <v>2</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E324" s="21"/>
       <c r="F324" s="21"/>
@@ -16663,7 +16660,7 @@
         <v>38</v>
       </c>
       <c r="D328" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E328" s="13">
         <v>326</v>
@@ -16847,7 +16844,7 @@
         <v>38</v>
       </c>
       <c r="D332" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E332" s="13">
         <v>330</v>
@@ -17123,7 +17120,7 @@
         <v>20</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E338" s="16">
         <v>336</v>
@@ -17261,7 +17258,7 @@
         <v>20</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E341" s="16">
         <v>339</v>
@@ -17307,7 +17304,7 @@
         <v>20</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E342" s="16">
         <v>340</v>
@@ -17353,7 +17350,7 @@
         <v>20</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E343" s="16">
         <v>341</v>
@@ -17951,7 +17948,7 @@
         <v>22</v>
       </c>
       <c r="D356" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E356" s="18">
         <v>354</v>
@@ -18319,7 +18316,7 @@
         <v>22</v>
       </c>
       <c r="D364" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E364" s="18">
         <v>362</v>
@@ -19423,7 +19420,7 @@
         <v>52</v>
       </c>
       <c r="D388" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E388" s="26">
         <v>386</v>
@@ -19469,7 +19466,7 @@
         <v>52</v>
       </c>
       <c r="D389" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E389" s="26">
         <v>387</v>
@@ -19515,7 +19512,7 @@
         <v>55</v>
       </c>
       <c r="D390" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E390" s="24">
         <v>388</v>
@@ -19561,7 +19558,7 @@
         <v>55</v>
       </c>
       <c r="D391" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E391" s="24">
         <v>389</v>
@@ -19607,7 +19604,7 @@
         <v>55</v>
       </c>
       <c r="D392" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E392" s="24">
         <v>390</v>
@@ -19699,7 +19696,7 @@
         <v>55</v>
       </c>
       <c r="D394" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E394" s="24">
         <v>392</v>
@@ -20205,7 +20202,7 @@
         <v>100</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E405" s="25">
         <v>403</v>
@@ -21171,7 +21168,7 @@
         <v>133</v>
       </c>
       <c r="D426" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E426" s="36">
         <v>424</v>
@@ -21306,7 +21303,7 @@
         <v>33</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D429" s="20" t="s">
         <v>34</v>
@@ -21352,7 +21349,7 @@
         <v>33</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D430" s="20" t="s">
         <v>37</v>
@@ -21398,7 +21395,7 @@
         <v>33</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D431" s="20" t="s">
         <v>36</v>
@@ -21444,7 +21441,7 @@
         <v>33</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D432" s="20" t="s">
         <v>35</v>
@@ -21490,7 +21487,7 @@
         <v>33</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D433" s="20" t="s">
         <v>169</v>
@@ -21536,7 +21533,7 @@
         <v>33</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D434" s="20" t="s">
         <v>81</v>
@@ -21815,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="D440" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E440" s="21"/>
       <c r="F440" s="21"/>
@@ -21999,7 +21996,7 @@
         <v>38</v>
       </c>
       <c r="D444" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E444" s="13">
         <v>442</v>
@@ -22367,7 +22364,7 @@
         <v>20</v>
       </c>
       <c r="D452" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E452" s="16">
         <v>450</v>
@@ -22505,7 +22502,7 @@
         <v>20</v>
       </c>
       <c r="D455" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E455" s="16">
         <v>453</v>
@@ -22551,7 +22548,7 @@
         <v>20</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E456" s="16">
         <v>454</v>
@@ -23011,7 +23008,7 @@
         <v>22</v>
       </c>
       <c r="D466" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E466" s="18">
         <v>464</v>
@@ -24253,7 +24250,7 @@
         <v>52</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E493" s="26">
         <v>491</v>
@@ -24299,7 +24296,7 @@
         <v>52</v>
       </c>
       <c r="D494" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E494" s="26">
         <v>492</v>
@@ -24345,7 +24342,7 @@
         <v>55</v>
       </c>
       <c r="D495" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E495" s="24">
         <v>493</v>
@@ -24391,7 +24388,7 @@
         <v>55</v>
       </c>
       <c r="D496" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E496" s="24">
         <v>494</v>
@@ -25446,7 +25443,7 @@
         <v>33</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D519" s="20" t="s">
         <v>34</v>
@@ -25492,7 +25489,7 @@
         <v>33</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D520" s="20" t="s">
         <v>37</v>
@@ -25538,7 +25535,7 @@
         <v>33</v>
       </c>
       <c r="C521" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D521" s="20" t="s">
         <v>36</v>
@@ -25584,7 +25581,7 @@
         <v>33</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D522" s="20" t="s">
         <v>35</v>
@@ -25630,7 +25627,7 @@
         <v>33</v>
       </c>
       <c r="C523" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D523" s="20" t="s">
         <v>169</v>
@@ -25676,7 +25673,7 @@
         <v>33</v>
       </c>
       <c r="C524" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D524" s="20" t="s">
         <v>81</v>
@@ -25955,7 +25952,7 @@
         <v>2</v>
       </c>
       <c r="D530" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E530" s="21"/>
       <c r="F530" s="21"/>
@@ -26139,7 +26136,7 @@
         <v>38</v>
       </c>
       <c r="D534" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E534" s="13">
         <v>532</v>
@@ -26507,7 +26504,7 @@
         <v>20</v>
       </c>
       <c r="D542" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E542" s="16">
         <v>540</v>
@@ -26645,7 +26642,7 @@
         <v>20</v>
       </c>
       <c r="D545" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E545" s="16">
         <v>543</v>
@@ -26691,7 +26688,7 @@
         <v>20</v>
       </c>
       <c r="D546" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E546" s="16">
         <v>544</v>
@@ -27151,7 +27148,7 @@
         <v>22</v>
       </c>
       <c r="D556" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E556" s="18">
         <v>554</v>
@@ -28393,7 +28390,7 @@
         <v>52</v>
       </c>
       <c r="D583" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E583" s="26">
         <v>581</v>
@@ -28439,7 +28436,7 @@
         <v>52</v>
       </c>
       <c r="D584" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E584" s="26">
         <v>582</v>
@@ -28485,7 +28482,7 @@
         <v>55</v>
       </c>
       <c r="D585" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E585" s="24">
         <v>583</v>
@@ -28531,7 +28528,7 @@
         <v>55</v>
       </c>
       <c r="D586" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E586" s="24">
         <v>584</v>
@@ -29586,7 +29583,7 @@
         <v>33</v>
       </c>
       <c r="C609" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D609" s="20" t="s">
         <v>34</v>
@@ -29632,7 +29629,7 @@
         <v>33</v>
       </c>
       <c r="C610" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D610" s="20" t="s">
         <v>37</v>
@@ -29678,7 +29675,7 @@
         <v>33</v>
       </c>
       <c r="C611" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D611" s="20" t="s">
         <v>36</v>
@@ -29724,7 +29721,7 @@
         <v>33</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D612" s="20" t="s">
         <v>35</v>
@@ -29770,7 +29767,7 @@
         <v>33</v>
       </c>
       <c r="C613" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D613" s="20" t="s">
         <v>169</v>
@@ -30049,7 +30046,7 @@
         <v>2</v>
       </c>
       <c r="D619" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E619" s="21"/>
       <c r="F619" s="21"/>
@@ -30233,7 +30230,7 @@
         <v>38</v>
       </c>
       <c r="D623" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E623" s="13">
         <v>621</v>
@@ -30828,7 +30825,7 @@
         <v>33</v>
       </c>
       <c r="C636" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D636" s="20" t="s">
         <v>34</v>
@@ -30874,7 +30871,7 @@
         <v>33</v>
       </c>
       <c r="C637" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D637" s="20" t="s">
         <v>37</v>
@@ -30920,7 +30917,7 @@
         <v>33</v>
       </c>
       <c r="C638" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D638" s="20" t="s">
         <v>36</v>
@@ -30966,7 +30963,7 @@
         <v>33</v>
       </c>
       <c r="C639" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D639" s="20" t="s">
         <v>35</v>
@@ -31012,7 +31009,7 @@
         <v>33</v>
       </c>
       <c r="C640" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D640" s="20" t="s">
         <v>169</v>
@@ -31751,7 +31748,7 @@
         <v>22</v>
       </c>
       <c r="D656" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E656" s="18">
         <v>654</v>
@@ -32119,7 +32116,7 @@
         <v>22</v>
       </c>
       <c r="D664" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E664" s="18">
         <v>662</v>
@@ -32901,7 +32898,7 @@
         <v>52</v>
       </c>
       <c r="D681" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E681" s="26">
         <v>679</v>
@@ -32947,7 +32944,7 @@
         <v>52</v>
       </c>
       <c r="D682" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E682" s="26">
         <v>680</v>
@@ -32990,7 +32987,7 @@
         <v>33</v>
       </c>
       <c r="C683" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D683" s="20" t="s">
         <v>34</v>
@@ -33036,7 +33033,7 @@
         <v>33</v>
       </c>
       <c r="C684" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D684" s="20" t="s">
         <v>37</v>
@@ -33082,7 +33079,7 @@
         <v>33</v>
       </c>
       <c r="C685" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D685" s="20" t="s">
         <v>36</v>
@@ -33128,7 +33125,7 @@
         <v>33</v>
       </c>
       <c r="C686" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D686" s="20" t="s">
         <v>35</v>
@@ -33174,7 +33171,7 @@
         <v>33</v>
       </c>
       <c r="C687" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D687" s="20" t="s">
         <v>169</v>
@@ -33913,7 +33910,7 @@
         <v>22</v>
       </c>
       <c r="D703" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E703" s="18">
         <v>701</v>
@@ -34281,7 +34278,7 @@
         <v>22</v>
       </c>
       <c r="D711" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E711" s="18">
         <v>709</v>
@@ -34833,7 +34830,7 @@
         <v>52</v>
       </c>
       <c r="D723" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E723" s="26">
         <v>721</v>
@@ -35060,7 +35057,7 @@
         <v>33</v>
       </c>
       <c r="C728" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D728" s="20" t="s">
         <v>34</v>
@@ -35106,7 +35103,7 @@
         <v>33</v>
       </c>
       <c r="C729" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D729" s="20" t="s">
         <v>37</v>
@@ -35152,7 +35149,7 @@
         <v>33</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D730" s="20" t="s">
         <v>36</v>
@@ -35198,7 +35195,7 @@
         <v>33</v>
       </c>
       <c r="C731" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D731" s="20" t="s">
         <v>35</v>
@@ -35244,7 +35241,7 @@
         <v>33</v>
       </c>
       <c r="C732" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D732" s="20" t="s">
         <v>169</v>
@@ -35523,7 +35520,7 @@
         <v>2</v>
       </c>
       <c r="D738" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E738" s="21"/>
       <c r="F738" s="21"/>
@@ -35937,7 +35934,7 @@
         <v>20</v>
       </c>
       <c r="D747" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E747" s="16">
         <v>745</v>
@@ -35983,7 +35980,7 @@
         <v>20</v>
       </c>
       <c r="D748" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E748" s="16">
         <v>746</v>
@@ -37317,7 +37314,7 @@
         <v>55</v>
       </c>
       <c r="D777" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E777" s="24">
         <v>775</v>
@@ -37363,7 +37360,7 @@
         <v>55</v>
       </c>
       <c r="D778" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E778" s="24">
         <v>776</v>
@@ -37455,7 +37452,7 @@
         <v>55</v>
       </c>
       <c r="D780" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E780" s="24">
         <v>778</v>
@@ -37593,7 +37590,7 @@
         <v>24</v>
       </c>
       <c r="D783" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E783" s="25">
         <v>781</v>
@@ -37777,7 +37774,7 @@
         <v>24</v>
       </c>
       <c r="D787" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E787" s="25">
         <v>785</v>
@@ -37866,7 +37863,7 @@
         <v>33</v>
       </c>
       <c r="C789" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D789" s="20" t="s">
         <v>34</v>
@@ -37912,7 +37909,7 @@
         <v>33</v>
       </c>
       <c r="C790" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D790" s="20" t="s">
         <v>37</v>
@@ -37958,7 +37955,7 @@
         <v>33</v>
       </c>
       <c r="C791" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D791" s="20" t="s">
         <v>36</v>
@@ -38004,7 +38001,7 @@
         <v>33</v>
       </c>
       <c r="C792" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D792" s="20" t="s">
         <v>35</v>
@@ -38050,7 +38047,7 @@
         <v>33</v>
       </c>
       <c r="C793" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D793" s="20" t="s">
         <v>169</v>
@@ -38329,7 +38326,7 @@
         <v>2</v>
       </c>
       <c r="D799" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E799" s="21"/>
       <c r="F799" s="21"/>
@@ -38743,7 +38740,7 @@
         <v>20</v>
       </c>
       <c r="D808" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E808" s="16">
         <v>806</v>
@@ -38789,7 +38786,7 @@
         <v>20</v>
       </c>
       <c r="D809" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E809" s="16">
         <v>807</v>
@@ -40123,7 +40120,7 @@
         <v>55</v>
       </c>
       <c r="D838" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E838" s="24">
         <v>836</v>
@@ -40169,7 +40166,7 @@
         <v>55</v>
       </c>
       <c r="D839" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E839" s="24">
         <v>837</v>
@@ -40261,7 +40258,7 @@
         <v>55</v>
       </c>
       <c r="D841" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E841" s="24">
         <v>839</v>
@@ -40399,7 +40396,7 @@
         <v>24</v>
       </c>
       <c r="D844" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E844" s="25">
         <v>842</v>
@@ -40583,7 +40580,7 @@
         <v>24</v>
       </c>
       <c r="D848" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E848" s="25">
         <v>846</v>
@@ -40672,7 +40669,7 @@
         <v>33</v>
       </c>
       <c r="C850" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D850" s="20" t="s">
         <v>34</v>
@@ -40718,7 +40715,7 @@
         <v>33</v>
       </c>
       <c r="C851" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D851" s="20" t="s">
         <v>37</v>
@@ -40764,7 +40761,7 @@
         <v>33</v>
       </c>
       <c r="C852" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D852" s="20" t="s">
         <v>36</v>
@@ -40810,7 +40807,7 @@
         <v>33</v>
       </c>
       <c r="C853" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D853" s="20" t="s">
         <v>35</v>
@@ -40856,7 +40853,7 @@
         <v>33</v>
       </c>
       <c r="C854" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D854" s="20" t="s">
         <v>169</v>
@@ -41181,7 +41178,7 @@
         <v>24</v>
       </c>
       <c r="D861" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E861" s="25">
         <v>860</v>
@@ -41227,7 +41224,7 @@
         <v>24</v>
       </c>
       <c r="D862" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E862" s="25">
         <v>861</v>
@@ -41270,7 +41267,7 @@
         <v>33</v>
       </c>
       <c r="C863" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D863" s="20" t="s">
         <v>34</v>
@@ -41316,7 +41313,7 @@
         <v>33</v>
       </c>
       <c r="C864" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D864" s="20" t="s">
         <v>37</v>
@@ -41362,7 +41359,7 @@
         <v>33</v>
       </c>
       <c r="C865" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D865" s="20" t="s">
         <v>36</v>
@@ -41408,7 +41405,7 @@
         <v>33</v>
       </c>
       <c r="C866" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D866" s="20" t="s">
         <v>35</v>
@@ -41454,7 +41451,7 @@
         <v>33</v>
       </c>
       <c r="C867" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D867" s="20" t="s">
         <v>169</v>
@@ -41500,7 +41497,7 @@
         <v>33</v>
       </c>
       <c r="C868" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D868" s="20" t="s">
         <v>81</v>
@@ -41779,7 +41776,7 @@
         <v>2</v>
       </c>
       <c r="D874" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E874" s="21"/>
       <c r="F874" s="21"/>
@@ -41963,7 +41960,7 @@
         <v>38</v>
       </c>
       <c r="D878" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E878" s="13">
         <v>877</v>
@@ -42331,7 +42328,7 @@
         <v>20</v>
       </c>
       <c r="D886" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E886" s="16">
         <v>885</v>
@@ -42469,7 +42466,7 @@
         <v>20</v>
       </c>
       <c r="D889" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E889" s="16">
         <v>888</v>
@@ -42515,7 +42512,7 @@
         <v>20</v>
       </c>
       <c r="D890" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E890" s="16">
         <v>889</v>
@@ -42975,7 +42972,7 @@
         <v>22</v>
       </c>
       <c r="D900" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E900" s="18">
         <v>899</v>
@@ -44217,7 +44214,7 @@
         <v>52</v>
       </c>
       <c r="D927" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E927" s="26">
         <v>926</v>
@@ -44263,7 +44260,7 @@
         <v>52</v>
       </c>
       <c r="D928" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E928" s="26">
         <v>927</v>
@@ -44309,7 +44306,7 @@
         <v>55</v>
       </c>
       <c r="D929" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E929" s="24">
         <v>928</v>
@@ -44355,7 +44352,7 @@
         <v>55</v>
       </c>
       <c r="D930" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E930" s="24">
         <v>929</v>
@@ -45364,7 +45361,7 @@
         <v>33</v>
       </c>
       <c r="C952" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D952" s="20" t="s">
         <v>34</v>
@@ -45410,7 +45407,7 @@
         <v>33</v>
       </c>
       <c r="C953" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D953" s="20" t="s">
         <v>37</v>
@@ -45456,7 +45453,7 @@
         <v>33</v>
       </c>
       <c r="C954" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D954" s="20" t="s">
         <v>36</v>
@@ -45502,7 +45499,7 @@
         <v>33</v>
       </c>
       <c r="C955" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D955" s="20" t="s">
         <v>35</v>
@@ -45548,7 +45545,7 @@
         <v>33</v>
       </c>
       <c r="C956" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D956" s="20" t="s">
         <v>169</v>
@@ -45594,7 +45591,7 @@
         <v>33</v>
       </c>
       <c r="C957" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D957" s="20" t="s">
         <v>81</v>
@@ -45873,7 +45870,7 @@
         <v>2</v>
       </c>
       <c r="D963" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E963" s="21"/>
       <c r="F963" s="21"/>
@@ -46057,7 +46054,7 @@
         <v>38</v>
       </c>
       <c r="D967" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E967" s="13">
         <v>966</v>
@@ -46425,7 +46422,7 @@
         <v>20</v>
       </c>
       <c r="D975" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E975" s="16">
         <v>974</v>
@@ -46563,7 +46560,7 @@
         <v>20</v>
       </c>
       <c r="D978" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E978" s="16">
         <v>977</v>
@@ -46609,7 +46606,7 @@
         <v>20</v>
       </c>
       <c r="D979" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E979" s="16">
         <v>978</v>
@@ -47069,7 +47066,7 @@
         <v>22</v>
       </c>
       <c r="D989" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E989" s="18">
         <v>988</v>
@@ -48311,7 +48308,7 @@
         <v>52</v>
       </c>
       <c r="D1016" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1016" s="26">
         <v>1015</v>
@@ -48357,7 +48354,7 @@
         <v>52</v>
       </c>
       <c r="D1017" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1017" s="26">
         <v>1016</v>
@@ -48403,7 +48400,7 @@
         <v>55</v>
       </c>
       <c r="D1018" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1018" s="24">
         <v>1017</v>
@@ -48449,7 +48446,7 @@
         <v>55</v>
       </c>
       <c r="D1019" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1019" s="24">
         <v>1018</v>
@@ -49458,7 +49455,7 @@
         <v>33</v>
       </c>
       <c r="C1041" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1041" s="20" t="s">
         <v>34</v>
@@ -49504,7 +49501,7 @@
         <v>33</v>
       </c>
       <c r="C1042" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1042" s="20" t="s">
         <v>37</v>
@@ -49550,7 +49547,7 @@
         <v>33</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1043" s="20" t="s">
         <v>36</v>
@@ -49596,7 +49593,7 @@
         <v>33</v>
       </c>
       <c r="C1044" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1044" s="20" t="s">
         <v>35</v>
@@ -49642,7 +49639,7 @@
         <v>33</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1045" s="20" t="s">
         <v>168</v>
@@ -49688,7 +49685,7 @@
         <v>33</v>
       </c>
       <c r="C1046" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1046" s="20" t="s">
         <v>169</v>
@@ -49734,7 +49731,7 @@
         <v>33</v>
       </c>
       <c r="C1047" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1047" s="20" t="s">
         <v>170</v>
@@ -49780,7 +49777,7 @@
         <v>33</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1048" s="20" t="s">
         <v>171</v>
@@ -49826,7 +49823,7 @@
         <v>33</v>
       </c>
       <c r="C1049" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1049" s="20" t="s">
         <v>81</v>
@@ -50105,7 +50102,7 @@
         <v>2</v>
       </c>
       <c r="D1055" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1055" s="21"/>
       <c r="F1055" s="21"/>
@@ -50289,7 +50286,7 @@
         <v>38</v>
       </c>
       <c r="D1059" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E1059" s="13">
         <v>1058</v>
@@ -50703,7 +50700,7 @@
         <v>20</v>
       </c>
       <c r="D1068" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1068" s="16">
         <v>1067</v>
@@ -50841,7 +50838,7 @@
         <v>20</v>
       </c>
       <c r="D1071" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1071" s="16">
         <v>1070</v>
@@ -50887,7 +50884,7 @@
         <v>20</v>
       </c>
       <c r="D1072" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1072" s="16">
         <v>1071</v>
@@ -50933,7 +50930,7 @@
         <v>20</v>
       </c>
       <c r="D1073" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1073" s="16">
         <v>1072</v>
@@ -51531,7 +51528,7 @@
         <v>22</v>
       </c>
       <c r="D1086" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1086" s="18">
         <v>1085</v>
@@ -51899,7 +51896,7 @@
         <v>22</v>
       </c>
       <c r="D1094" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1094" s="18">
         <v>1093</v>
@@ -53003,7 +53000,7 @@
         <v>52</v>
       </c>
       <c r="D1118" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1118" s="26">
         <v>1117</v>
@@ -53049,7 +53046,7 @@
         <v>52</v>
       </c>
       <c r="D1119" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1119" s="26">
         <v>1118</v>
@@ -53095,7 +53092,7 @@
         <v>55</v>
       </c>
       <c r="D1120" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1120" s="24">
         <v>1119</v>
@@ -53141,7 +53138,7 @@
         <v>55</v>
       </c>
       <c r="D1121" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1121" s="24">
         <v>1120</v>
@@ -53187,7 +53184,7 @@
         <v>55</v>
       </c>
       <c r="D1122" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1122" s="24">
         <v>1121</v>
@@ -53279,7 +53276,7 @@
         <v>55</v>
       </c>
       <c r="D1124" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1124" s="24">
         <v>1123</v>
@@ -53785,7 +53782,7 @@
         <v>100</v>
       </c>
       <c r="D1135" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1135" s="51">
         <v>1134</v>
@@ -54751,7 +54748,7 @@
         <v>133</v>
       </c>
       <c r="D1156" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1156" s="24">
         <v>1155</v>
@@ -54889,7 +54886,7 @@
         <v>133</v>
       </c>
       <c r="D1159" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1159" s="24">
         <v>1158</v>
@@ -54932,7 +54929,7 @@
         <v>33</v>
       </c>
       <c r="C1160" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1160" s="20" t="s">
         <v>34</v>
@@ -54978,7 +54975,7 @@
         <v>33</v>
       </c>
       <c r="C1161" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1161" s="20" t="s">
         <v>37</v>
@@ -55024,7 +55021,7 @@
         <v>33</v>
       </c>
       <c r="C1162" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1162" s="20" t="s">
         <v>36</v>
@@ -55070,7 +55067,7 @@
         <v>33</v>
       </c>
       <c r="C1163" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1163" s="20" t="s">
         <v>35</v>
@@ -55116,7 +55113,7 @@
         <v>33</v>
       </c>
       <c r="C1164" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1164" s="20" t="s">
         <v>169</v>
@@ -55257,7 +55254,7 @@
         <v>2</v>
       </c>
       <c r="D1167" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1167" s="21"/>
       <c r="F1167" s="21"/>
@@ -55487,7 +55484,7 @@
         <v>38</v>
       </c>
       <c r="D1172" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E1172" s="13">
         <v>1171</v>
@@ -55855,7 +55852,7 @@
         <v>20</v>
       </c>
       <c r="D1180" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1180" s="16">
         <v>1179</v>
@@ -55993,7 +55990,7 @@
         <v>20</v>
       </c>
       <c r="D1183" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1183" s="16">
         <v>1182</v>
@@ -56039,7 +56036,7 @@
         <v>20</v>
       </c>
       <c r="D1184" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1184" s="16">
         <v>1183</v>
@@ -57281,7 +57278,7 @@
         <v>55</v>
       </c>
       <c r="D1211" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1211" s="24">
         <v>1210</v>
@@ -57327,7 +57324,7 @@
         <v>55</v>
       </c>
       <c r="D1212" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1212" s="24">
         <v>1211</v>
@@ -57784,7 +57781,7 @@
         <v>33</v>
       </c>
       <c r="C1222" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1222" s="20" t="s">
         <v>34</v>
@@ -57830,7 +57827,7 @@
         <v>33</v>
       </c>
       <c r="C1223" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1223" s="20" t="s">
         <v>37</v>
@@ -57876,7 +57873,7 @@
         <v>33</v>
       </c>
       <c r="C1224" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1224" s="20" t="s">
         <v>36</v>
@@ -57922,7 +57919,7 @@
         <v>33</v>
       </c>
       <c r="C1225" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1225" s="20" t="s">
         <v>35</v>
@@ -57968,7 +57965,7 @@
         <v>33</v>
       </c>
       <c r="C1226" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1226" s="20" t="s">
         <v>169</v>
@@ -58014,7 +58011,7 @@
         <v>33</v>
       </c>
       <c r="C1227" s="20" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1227" s="20" t="s">
         <v>81</v>
@@ -58155,7 +58152,7 @@
         <v>2</v>
       </c>
       <c r="D1230" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1230" s="21"/>
       <c r="F1230" s="21"/>
@@ -58615,7 +58612,7 @@
         <v>20</v>
       </c>
       <c r="D1240" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1240" s="16">
         <v>1239</v>
@@ -58753,7 +58750,7 @@
         <v>20</v>
       </c>
       <c r="D1243" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1243" s="16">
         <v>1242</v>
@@ -58799,7 +58796,7 @@
         <v>20</v>
       </c>
       <c r="D1244" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1244" s="16">
         <v>1243</v>
@@ -59581,7 +59578,7 @@
         <v>22</v>
       </c>
       <c r="D1261" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1261" s="18">
         <v>1260</v>
@@ -60317,7 +60314,7 @@
         <v>52</v>
       </c>
       <c r="D1277" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1277" s="26">
         <v>1276</v>
@@ -60363,7 +60360,7 @@
         <v>52</v>
       </c>
       <c r="D1278" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1278" s="26">
         <v>1277</v>
@@ -60593,7 +60590,7 @@
         <v>55</v>
       </c>
       <c r="D1283" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1283" s="24">
         <v>1282</v>
@@ -60639,7 +60636,7 @@
         <v>55</v>
       </c>
       <c r="D1284" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1284" s="24">
         <v>1283</v>
@@ -61099,7 +61096,7 @@
         <v>38</v>
       </c>
       <c r="D1294" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E1294" s="13">
         <v>1293</v>
@@ -61918,13 +61915,13 @@
     </row>
     <row r="1312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1312" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1312" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C1312" s="68" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1312" s="68" t="s">
         <v>34</v>
@@ -61964,13 +61961,13 @@
     </row>
     <row r="1313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1313" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1313" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C1313" s="68" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1313" s="68" t="s">
         <v>37</v>
@@ -62010,13 +62007,13 @@
     </row>
     <row r="1314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1314" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1314" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C1314" s="68" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1314" s="68" t="s">
         <v>36</v>
@@ -62056,13 +62053,13 @@
     </row>
     <row r="1315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1315" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1315" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C1315" s="68" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1315" s="68" t="s">
         <v>35</v>
@@ -62102,13 +62099,13 @@
     </row>
     <row r="1316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1316" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1316" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C1316" s="68" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D1316" s="68" t="s">
         <v>169</v>
@@ -62148,7 +62145,7 @@
     </row>
     <row r="1317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1317" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1317" s="58" t="s">
         <v>33</v>
@@ -62194,7 +62191,7 @@
     </row>
     <row r="1318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1318" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1318" s="58" t="s">
         <v>33</v>
@@ -62240,7 +62237,7 @@
     </row>
     <row r="1319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1319" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1319" s="58" t="s">
         <v>33</v>
@@ -62249,7 +62246,7 @@
         <v>2</v>
       </c>
       <c r="D1319" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1319" s="36">
         <v>1318</v>
@@ -62286,7 +62283,7 @@
     </row>
     <row r="1320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1320" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1320" s="58" t="s">
         <v>33</v>
@@ -62332,7 +62329,7 @@
     </row>
     <row r="1321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1321" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1321" s="58" t="s">
         <v>33</v>
@@ -62378,7 +62375,7 @@
     </row>
     <row r="1322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1322" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1322" s="58" t="s">
         <v>33</v>
@@ -62424,7 +62421,7 @@
     </row>
     <row r="1323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1323" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1323" s="58" t="s">
         <v>33</v>
@@ -62470,7 +62467,7 @@
     </row>
     <row r="1324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1324" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1324" s="58" t="s">
         <v>33</v>
@@ -62516,7 +62513,7 @@
     </row>
     <row r="1325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1325" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1325" s="58" t="s">
         <v>33</v>
@@ -62562,7 +62559,7 @@
     </row>
     <row r="1326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1326" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1326" s="66" t="s">
         <v>19</v>
@@ -62608,7 +62605,7 @@
     </row>
     <row r="1327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1327" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1327" s="66" t="s">
         <v>19</v>
@@ -62654,7 +62651,7 @@
     </row>
     <row r="1328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1328" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1328" s="6" t="s">
         <v>20</v>
@@ -62700,7 +62697,7 @@
     </row>
     <row r="1329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1329" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1329" s="6" t="s">
         <v>20</v>
@@ -62746,7 +62743,7 @@
     </row>
     <row r="1330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1330" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1330" s="6" t="s">
         <v>20</v>
@@ -62792,7 +62789,7 @@
     </row>
     <row r="1331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1331" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1331" s="6" t="s">
         <v>20</v>
@@ -62801,7 +62798,7 @@
         <v>20</v>
       </c>
       <c r="D1331" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1331" s="6">
         <v>1330</v>
@@ -62838,7 +62835,7 @@
     </row>
     <row r="1332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1332" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1332" s="6" t="s">
         <v>20</v>
@@ -62847,7 +62844,7 @@
         <v>20</v>
       </c>
       <c r="D1332" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1332" s="6">
         <v>1331</v>
@@ -62884,7 +62881,7 @@
     </row>
     <row r="1333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1333" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1333" s="5" t="s">
         <v>21</v>
@@ -62930,7 +62927,7 @@
     </row>
     <row r="1334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1334" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1334" s="5" t="s">
         <v>21</v>
@@ -62976,7 +62973,7 @@
     </row>
     <row r="1335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1335" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1335" s="5" t="s">
         <v>21</v>
@@ -63022,7 +63019,7 @@
     </row>
     <row r="1336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1336" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1336" s="5" t="s">
         <v>21</v>
@@ -63068,7 +63065,7 @@
     </row>
     <row r="1337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1337" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1337" s="68" t="s">
         <v>22</v>
@@ -63114,7 +63111,7 @@
     </row>
     <row r="1338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1338" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1338" s="68" t="s">
         <v>22</v>
@@ -63160,7 +63157,7 @@
     </row>
     <row r="1339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1339" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1339" s="68" t="s">
         <v>22</v>
@@ -63206,7 +63203,7 @@
     </row>
     <row r="1340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1340" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1340" s="68" t="s">
         <v>22</v>
@@ -63252,13 +63249,13 @@
     </row>
     <row r="1341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1341" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1341" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C1341" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1341" s="36" t="s">
         <v>51</v>
@@ -63298,13 +63295,13 @@
     </row>
     <row r="1342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1342" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1342" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C1342" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1342" s="36" t="s">
         <v>50</v>
@@ -63344,13 +63341,13 @@
     </row>
     <row r="1343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1343" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1343" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C1343" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1343" s="36" t="s">
         <v>48</v>
@@ -63390,13 +63387,13 @@
     </row>
     <row r="1344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1344" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1344" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C1344" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1344" s="36" t="s">
         <v>49</v>
@@ -63436,13 +63433,13 @@
     </row>
     <row r="1345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1345" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1345" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C1345" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1345" s="36" t="s">
         <v>88</v>
@@ -63482,7 +63479,7 @@
     </row>
     <row r="1346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1346" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1346" s="20" t="s">
         <v>52</v>
@@ -63528,7 +63525,7 @@
     </row>
     <row r="1347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1347" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1347" s="20" t="s">
         <v>52</v>
@@ -63574,7 +63571,7 @@
     </row>
     <row r="1348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1348" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1348" s="20" t="s">
         <v>52</v>
@@ -63620,7 +63617,7 @@
     </row>
     <row r="1349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1349" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1349" s="20" t="s">
         <v>52</v>
@@ -63666,7 +63663,7 @@
     </row>
     <row r="1350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1350" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1350" s="20" t="s">
         <v>52</v>
@@ -63712,7 +63709,7 @@
     </row>
     <row r="1351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1351" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1351" s="20" t="s">
         <v>52</v>
@@ -63758,7 +63755,7 @@
     </row>
     <row r="1352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1352" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1352" s="13" t="s">
         <v>55</v>
@@ -63767,7 +63764,7 @@
         <v>55</v>
       </c>
       <c r="D1352" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1352" s="13">
         <v>1351</v>
@@ -63804,7 +63801,7 @@
     </row>
     <row r="1353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1353" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1353" s="13" t="s">
         <v>55</v>
@@ -63813,7 +63810,7 @@
         <v>55</v>
       </c>
       <c r="D1353" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1353" s="13">
         <v>1352</v>
@@ -63850,7 +63847,7 @@
     </row>
     <row r="1354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1354" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1354" s="13" t="s">
         <v>55</v>
@@ -63896,7 +63893,7 @@
     </row>
     <row r="1355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1355" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1355" s="13" t="s">
         <v>55</v>
@@ -63905,7 +63902,7 @@
         <v>55</v>
       </c>
       <c r="D1355" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1355" s="13">
         <v>1354</v>
@@ -63942,7 +63939,7 @@
     </row>
     <row r="1356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1356" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1356" s="70" t="s">
         <v>24</v>
@@ -63988,7 +63985,7 @@
     </row>
     <row r="1357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1357" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1357" s="70" t="s">
         <v>24</v>
@@ -64034,7 +64031,7 @@
     </row>
     <row r="1358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1358" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1358" s="70" t="s">
         <v>24</v>
@@ -64043,7 +64040,7 @@
         <v>24</v>
       </c>
       <c r="D1358" s="70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1358" s="70">
         <v>1357</v>
@@ -64080,7 +64077,7 @@
     </row>
     <row r="1359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1359" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1359" s="70" t="s">
         <v>24</v>
@@ -64126,7 +64123,7 @@
     </row>
     <row r="1360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1360" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1360" s="70" t="s">
         <v>24</v>
@@ -64172,7 +64169,7 @@
     </row>
     <row r="1361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1361" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1361" s="70" t="s">
         <v>24</v>
@@ -64218,7 +64215,7 @@
     </row>
     <row r="1362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1362" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1362" s="70" t="s">
         <v>24</v>
@@ -64264,7 +64261,7 @@
     </row>
     <row r="1363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1363" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1363" s="70" t="s">
         <v>24</v>
@@ -64310,7 +64307,7 @@
     </row>
     <row r="1364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1364" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1364" s="70" t="s">
         <v>24</v>
@@ -64356,7 +64353,7 @@
     </row>
     <row r="1365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1365" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1365" s="70" t="s">
         <v>24</v>
@@ -64365,7 +64362,7 @@
         <v>24</v>
       </c>
       <c r="D1365" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E1365" s="70">
         <v>1364</v>
@@ -64402,7 +64399,7 @@
     </row>
     <row r="1366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1366" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1366" s="70" t="s">
         <v>24</v>
@@ -64411,7 +64408,7 @@
         <v>24</v>
       </c>
       <c r="D1366" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1366" s="70">
         <v>1365</v>
